--- a/Jmeter/Báo cáo Jmeter1.xlsx
+++ b/Jmeter/Báo cáo Jmeter1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ĐỒ ÁN TỐT NGHIỆP\Jmeter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATN\Jmeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>Bảng hình ảnh</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>500ng lần 3</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/KMukXeedNJkU</t>
+  </si>
+  <si>
+    <t>nút thắt 100000 lượt truy cập</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -542,15 +548,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -559,37 +556,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,15 +596,38 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -959,75 +969,75 @@
   <sheetData>
     <row r="1" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:49" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:49" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:49" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="19" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:49" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1069,2302 +1079,2302 @@
       <c r="AW6" s="4"/>
     </row>
     <row r="7" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>10</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>0</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="14">
         <v>104</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="14">
         <v>110</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="14">
         <v>112</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="15">
         <f>AVERAGE(G7:I7)</f>
         <v>108.66666666666667</v>
       </c>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="23" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="14">
         <v>154</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="14">
         <v>137</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="14">
         <v>322</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="15">
         <f t="shared" ref="J8:J23" si="0">AVERAGE(G8:I8)</f>
         <v>204.33333333333334</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="23" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="14">
         <v>129</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="14">
         <v>127</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="14">
         <v>176</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="23" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="14">
         <v>64.900000000000006</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="14">
         <v>72.5</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="14">
         <v>30.8</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="15">
         <f t="shared" si="0"/>
         <v>56.06666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="23" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="14">
         <v>0</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="14">
         <v>0</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="14">
         <v>0</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="28" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>2</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="20">
+      <c r="C13" s="32"/>
+      <c r="D13" s="19">
         <v>100</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>0</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="14">
         <v>234</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="14">
         <v>201</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="14">
         <v>206</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="15">
         <f t="shared" si="0"/>
         <v>213.66666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="23" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="14">
         <v>4166</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="14">
         <v>1846</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="14">
         <v>1931</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="15">
         <f t="shared" si="0"/>
         <v>2647.6666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="23" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="14">
         <v>585</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="14">
         <v>514</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="14">
         <v>625</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="15">
         <f t="shared" si="0"/>
         <v>574.66666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="23" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="14">
         <v>23.1</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="14">
         <v>48.9</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="14">
         <v>48.9</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="15">
         <f t="shared" si="0"/>
         <v>40.300000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="23" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="14">
         <v>0</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="14">
         <v>0</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="14">
         <v>0</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="28" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>3</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="20">
+      <c r="C19" s="32"/>
+      <c r="D19" s="19">
         <v>500</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>0</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="14">
         <v>324</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="14">
         <v>107</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="14">
         <v>270</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="15">
         <f t="shared" si="0"/>
         <v>233.66666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="23" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="14">
         <v>21060</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="14">
         <v>21075</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="14">
         <v>21048</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="15">
         <f t="shared" si="0"/>
         <v>21061</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="23" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="14">
         <v>7115</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="14">
         <v>6832</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="14">
         <v>7324</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="15">
         <f t="shared" si="0"/>
         <v>7090.333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="23" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="14">
         <v>23.3</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="14">
         <v>23.3</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="14">
         <v>23.3</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="15">
         <f t="shared" si="0"/>
         <v>23.3</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="23" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="14">
         <v>18.2</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="14">
         <v>19.8</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="14">
         <v>17.600000000000001</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="15">
         <f t="shared" si="0"/>
         <v>18.533333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="37" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>4</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>10</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>0</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="14">
         <v>100</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="14">
         <v>99</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="14">
         <v>96</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="15">
         <f>AVERAGE(G26:I26)</f>
         <v>98.333333333333329</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="23" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="14">
         <v>332</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="14">
         <v>125</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="14">
         <v>332</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="15">
         <f t="shared" ref="J27:J42" si="1">AVERAGE(G27:I27)</f>
         <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="23" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="14">
         <v>239</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="14">
         <v>118</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="14">
         <v>216</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="15">
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="23" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="14">
         <v>30.1</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="14">
         <v>78.7</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="14">
         <v>29.9</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="15">
         <f t="shared" si="1"/>
         <v>46.233333333333341</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="23" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="14">
         <v>0</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="14">
         <v>0</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="14">
         <v>0</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="28" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>5</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="20">
+      <c r="C32" s="32"/>
+      <c r="D32" s="19">
         <v>100</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>0</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="14">
         <v>394</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="14">
         <v>165</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="14">
         <v>92</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="15">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="23" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="14">
         <v>1553</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="14">
         <v>1781</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="14">
         <v>4177</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="15">
         <f t="shared" si="1"/>
         <v>2503.6666666666665</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="23" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="14">
         <v>939</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="14">
         <v>668</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="14">
         <v>977</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="15">
         <f t="shared" si="1"/>
         <v>861.33333333333337</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="23" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="14">
         <v>63</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="14">
         <v>55.1</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="14">
         <v>23.8</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="15">
         <f t="shared" si="1"/>
         <v>47.300000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="23" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="14">
         <v>3</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="14">
         <v>1</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="14">
         <v>1</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="15">
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="37" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20">
+      <c r="A38" s="19">
         <v>6</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="20">
+      <c r="C38" s="32"/>
+      <c r="D38" s="19">
         <v>500</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>0</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="14">
         <v>289</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="14">
         <v>110</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="14">
         <v>137</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="15">
         <f t="shared" si="1"/>
         <v>178.66666666666666</v>
       </c>
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="23" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="14">
         <v>21044</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="14">
         <v>21052</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="14">
         <v>21056</v>
       </c>
-      <c r="J39" s="25">
+      <c r="J39" s="15">
         <f t="shared" si="1"/>
         <v>21050.666666666668</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="23" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="14">
         <v>7745</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="14">
         <v>7975</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="14">
         <v>1650</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J40" s="15">
         <f t="shared" si="1"/>
         <v>5790</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="23" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="14">
         <v>23.5</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="14">
         <v>23.6</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="14">
         <v>23.4</v>
       </c>
-      <c r="J41" s="25">
+      <c r="J41" s="15">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="23" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="14">
         <v>33.200000000000003</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="14">
         <v>37.4</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="14">
         <v>33.6</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J42" s="15">
         <f t="shared" si="1"/>
         <v>34.733333333333327</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="37" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20">
+      <c r="A45" s="19">
         <v>8</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="19">
         <v>10</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="19">
         <v>0</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="14">
         <v>67</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="14">
         <v>63</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="14">
         <v>66</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="15">
         <f>AVERAGE(G45:I45)</f>
         <v>65.333333333333329</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="23" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="14">
         <v>88</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="14">
         <v>279</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="14">
         <v>79</v>
       </c>
-      <c r="J46" s="25">
+      <c r="J46" s="15">
         <f t="shared" ref="J46:J49" si="2">AVERAGE(G46:I46)</f>
         <v>148.66666666666666</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="23" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="14">
         <v>80</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="14">
         <v>211</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="14">
         <v>72</v>
       </c>
-      <c r="J47" s="25">
+      <c r="J47" s="15">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="23" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="14">
         <v>111.1</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="14">
         <v>35.700000000000003</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="14">
         <v>126.6</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="15">
         <f t="shared" si="2"/>
         <v>91.133333333333326</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="23" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="14">
         <v>0</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="14">
         <v>0</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="14">
         <v>0</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J49" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="28" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20">
+      <c r="A51" s="19">
         <v>9</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="20">
+      <c r="C51" s="32"/>
+      <c r="D51" s="19">
         <v>100</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>0</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="14">
         <v>164</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="14">
         <v>160</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="14">
         <v>537</v>
       </c>
-      <c r="J51" s="25">
+      <c r="J51" s="15">
         <f t="shared" ref="J51:J55" si="3">AVERAGE(G51:I51)</f>
         <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="23" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="14">
         <v>1111</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="14">
         <v>1130</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="14">
         <v>1120</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="15">
         <f t="shared" si="3"/>
         <v>1120.3333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="23" t="s">
+      <c r="A53" s="29"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="14">
         <v>474</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="14">
         <v>420</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="14">
         <v>746</v>
       </c>
-      <c r="J53" s="25">
+      <c r="J53" s="15">
         <f t="shared" si="3"/>
         <v>546.66666666666663</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="23" t="s">
+      <c r="A54" s="29"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="14">
         <v>83.8</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="14">
         <v>83.1</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="14">
         <v>85.4</v>
       </c>
-      <c r="J54" s="25">
+      <c r="J54" s="15">
         <f t="shared" si="3"/>
         <v>84.1</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="23" t="s">
+      <c r="A55" s="29"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="14">
         <v>15</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="14">
         <v>18</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="14">
         <v>15</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J55" s="15">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="37" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
     </row>
     <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20">
+      <c r="A57" s="19">
         <v>10</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="20">
+      <c r="C57" s="32"/>
+      <c r="D57" s="19">
         <v>500</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <v>0</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="14">
         <v>256</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="14">
         <v>219</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="14">
         <v>233</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J57" s="15">
         <f t="shared" ref="J57:J61" si="4">AVERAGE(G57:I57)</f>
         <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="23" t="s">
+      <c r="A58" s="29"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="14">
         <v>21050</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H58" s="14">
         <v>21066</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="14">
         <v>21038</v>
       </c>
-      <c r="J58" s="25">
+      <c r="J58" s="15">
         <f t="shared" si="4"/>
         <v>21051.333333333332</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="23" t="s">
+      <c r="A59" s="29"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="14">
         <v>7598</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="14">
         <v>7767</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="14">
         <v>7899</v>
       </c>
-      <c r="J59" s="25">
+      <c r="J59" s="15">
         <f t="shared" si="4"/>
         <v>7754.666666666667</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="23" t="s">
+      <c r="A60" s="29"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="14">
         <v>23.5</v>
       </c>
-      <c r="H60" s="24">
+      <c r="H60" s="14">
         <v>23.6</v>
       </c>
-      <c r="I60" s="24">
+      <c r="I60" s="14">
         <v>23.5</v>
       </c>
-      <c r="J60" s="25">
+      <c r="J60" s="15">
         <f t="shared" si="4"/>
         <v>23.533333333333331</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="23" t="s">
+      <c r="A61" s="29"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="14">
         <v>34.200000000000003</v>
       </c>
-      <c r="H61" s="24">
+      <c r="H61" s="14">
         <v>35.200000000000003</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="14">
         <v>32.799999999999997</v>
       </c>
-      <c r="J61" s="25">
+      <c r="J61" s="15">
         <f t="shared" si="4"/>
         <v>34.06666666666667</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="37" t="s">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
     </row>
     <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
     </row>
     <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20">
+      <c r="A64" s="19">
         <v>11</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="19">
         <v>10</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="19">
         <v>0</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="14">
         <v>115</v>
       </c>
-      <c r="H64" s="24">
+      <c r="H64" s="14">
         <v>97</v>
       </c>
-      <c r="I64" s="24">
+      <c r="I64" s="14">
         <v>100</v>
       </c>
-      <c r="J64" s="25">
+      <c r="J64" s="15">
         <f>AVERAGE(G64:I64)</f>
         <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="23" t="s">
+      <c r="A65" s="29"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="24">
+      <c r="G65" s="14">
         <v>821</v>
       </c>
-      <c r="H65" s="24">
+      <c r="H65" s="14">
         <v>110</v>
       </c>
-      <c r="I65" s="24">
+      <c r="I65" s="14">
         <v>136</v>
       </c>
-      <c r="J65" s="25">
+      <c r="J65" s="15">
         <f t="shared" ref="J65:J68" si="5">AVERAGE(G65:I65)</f>
         <v>355.66666666666669</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="23" t="s">
+      <c r="A66" s="29"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G66" s="14">
         <v>198</v>
       </c>
-      <c r="H66" s="24">
+      <c r="H66" s="14">
         <v>102</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I66" s="14">
         <v>108</v>
       </c>
-      <c r="J66" s="25">
+      <c r="J66" s="15">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="23" t="s">
+      <c r="A67" s="29"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="14">
         <v>12.2</v>
       </c>
-      <c r="H67" s="24">
+      <c r="H67" s="14">
         <v>90.1</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I67" s="14">
         <v>73.5</v>
       </c>
-      <c r="J67" s="25">
+      <c r="J67" s="15">
         <f t="shared" si="5"/>
         <v>58.6</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="23" t="s">
+      <c r="A68" s="29"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="24">
+      <c r="G68" s="14">
         <v>0</v>
       </c>
-      <c r="H68" s="24">
+      <c r="H68" s="14">
         <v>0</v>
       </c>
-      <c r="I68" s="24">
+      <c r="I68" s="14">
         <v>0</v>
       </c>
-      <c r="J68" s="25">
+      <c r="J68" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="28" t="s">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="20">
+      <c r="A70" s="19">
         <v>12</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="20">
+      <c r="C70" s="32"/>
+      <c r="D70" s="19">
         <v>100</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="19">
         <v>0</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="24">
+      <c r="G70" s="14">
         <v>137</v>
       </c>
-      <c r="H70" s="24">
+      <c r="H70" s="14">
         <v>144</v>
       </c>
-      <c r="I70" s="24">
+      <c r="I70" s="14">
         <v>194</v>
       </c>
-      <c r="J70" s="25">
+      <c r="J70" s="15">
         <f t="shared" ref="J70:J74" si="6">AVERAGE(G70:I70)</f>
         <v>158.33333333333334</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="23" t="s">
+      <c r="A71" s="29"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="24">
+      <c r="G71" s="14">
         <v>1142</v>
       </c>
-      <c r="H71" s="24">
+      <c r="H71" s="14">
         <v>1770</v>
       </c>
-      <c r="I71" s="24">
+      <c r="I71" s="14">
         <v>1196</v>
       </c>
-      <c r="J71" s="25">
+      <c r="J71" s="15">
         <f t="shared" si="6"/>
         <v>1369.3333333333333</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="23" t="s">
+      <c r="A72" s="29"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="24">
+      <c r="G72" s="14">
         <v>555</v>
       </c>
-      <c r="H72" s="24">
+      <c r="H72" s="14">
         <v>573</v>
       </c>
-      <c r="I72" s="24">
+      <c r="I72" s="14">
         <v>566</v>
       </c>
-      <c r="J72" s="25">
+      <c r="J72" s="15">
         <f t="shared" si="6"/>
         <v>564.66666666666663</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="23" t="s">
+      <c r="A73" s="29"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="24">
+      <c r="G73" s="14">
         <v>80.099999999999994</v>
       </c>
-      <c r="H73" s="24">
+      <c r="H73" s="14">
         <v>54.2</v>
       </c>
-      <c r="I73" s="24">
+      <c r="I73" s="14">
         <v>78.8</v>
       </c>
-      <c r="J73" s="25">
+      <c r="J73" s="15">
         <f t="shared" si="6"/>
         <v>71.033333333333346</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="23" t="s">
+      <c r="A74" s="29"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="24">
+      <c r="G74" s="14">
         <v>6</v>
       </c>
-      <c r="H74" s="24">
+      <c r="H74" s="14">
         <v>12</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I74" s="14">
         <v>9</v>
       </c>
-      <c r="J74" s="25">
+      <c r="J74" s="15">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="37" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
     </row>
     <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="20">
+      <c r="A76" s="19">
         <v>13</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="20">
+      <c r="C76" s="32"/>
+      <c r="D76" s="19">
         <v>500</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="19">
         <v>0</v>
       </c>
-      <c r="F76" s="23" t="s">
+      <c r="F76" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="24">
+      <c r="G76" s="14">
         <v>177</v>
       </c>
-      <c r="H76" s="24">
+      <c r="H76" s="14">
         <v>142</v>
       </c>
-      <c r="I76" s="24">
+      <c r="I76" s="14">
         <v>337</v>
       </c>
-      <c r="J76" s="25">
+      <c r="J76" s="15">
         <f t="shared" ref="J76:J79" si="7">AVERAGE(G76:I76)</f>
         <v>218.66666666666666</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="23" t="s">
+      <c r="A77" s="29"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="24">
+      <c r="G77" s="14">
         <v>21057</v>
       </c>
-      <c r="H77" s="24">
+      <c r="H77" s="14">
         <v>21065</v>
       </c>
-      <c r="I77" s="24">
+      <c r="I77" s="14">
         <v>21041</v>
       </c>
-      <c r="J77" s="25">
+      <c r="J77" s="15">
         <f t="shared" si="7"/>
         <v>21054.333333333332</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="23" t="s">
+      <c r="A78" s="29"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="24">
+      <c r="G78" s="14">
         <v>7464</v>
       </c>
-      <c r="H78" s="24">
+      <c r="H78" s="14">
         <v>7891</v>
       </c>
-      <c r="I78" s="24">
+      <c r="I78" s="14">
         <v>7396</v>
       </c>
-      <c r="J78" s="25">
+      <c r="J78" s="15">
         <f t="shared" si="7"/>
         <v>7583.666666666667</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="23" t="s">
+      <c r="A79" s="29"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G79" s="24">
+      <c r="G79" s="14">
         <v>23.4</v>
       </c>
-      <c r="H79" s="24">
+      <c r="H79" s="14">
         <v>23.5</v>
       </c>
-      <c r="I79" s="24">
+      <c r="I79" s="14">
         <v>23.5</v>
       </c>
-      <c r="J79" s="25">
+      <c r="J79" s="15">
         <f t="shared" si="7"/>
         <v>23.466666666666669</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="23" t="s">
+      <c r="A80" s="29"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="24">
+      <c r="G80" s="14">
         <v>29.6</v>
       </c>
-      <c r="H80" s="24">
+      <c r="H80" s="14">
         <v>30.4</v>
       </c>
-      <c r="I80" s="24">
+      <c r="I80" s="14">
         <v>29.2</v>
       </c>
-      <c r="J80" s="25">
+      <c r="J80" s="15">
         <f>AVERAGE(G80:I80)</f>
         <v>29.733333333333334</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="37" t="s">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="20">
+      <c r="A83" s="19">
         <v>16</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="19">
         <v>80</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="23" t="s">
+      <c r="F83" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="24">
+      <c r="G83" s="14">
         <v>149</v>
       </c>
-      <c r="H83" s="24">
+      <c r="H83" s="14">
         <v>141</v>
       </c>
-      <c r="I83" s="24">
+      <c r="I83" s="14">
         <v>167</v>
       </c>
-      <c r="J83" s="25">
+      <c r="J83" s="15">
         <f>AVERAGE(G83:I83)</f>
         <v>152.33333333333334</v>
       </c>
       <c r="L83" s="6"/>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="20"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="23" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="24">
+      <c r="G84" s="14">
         <v>1992</v>
       </c>
-      <c r="H84" s="24">
+      <c r="H84" s="14">
         <v>15389</v>
       </c>
-      <c r="I84" s="24">
+      <c r="I84" s="14">
         <v>15892</v>
       </c>
-      <c r="J84" s="25">
+      <c r="J84" s="15">
         <f t="shared" ref="J84:J86" si="8">AVERAGE(G84:I84)</f>
         <v>11091</v>
       </c>
       <c r="L84" s="6"/>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="23" t="s">
+      <c r="A85" s="19"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="24">
+      <c r="G85" s="14">
         <v>755</v>
       </c>
-      <c r="H85" s="24">
+      <c r="H85" s="14">
         <v>2336</v>
       </c>
-      <c r="I85" s="24">
+      <c r="I85" s="14">
         <v>1495</v>
       </c>
-      <c r="J85" s="25">
+      <c r="J85" s="15">
         <f t="shared" si="8"/>
         <v>1528.6666666666667</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="23" t="s">
+      <c r="A86" s="19"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G86" s="24">
+      <c r="G86" s="14">
         <v>17.100000000000001</v>
       </c>
-      <c r="H86" s="24">
+      <c r="H86" s="14">
         <v>4.3</v>
       </c>
-      <c r="I86" s="24">
+      <c r="I86" s="14">
         <v>4.7</v>
       </c>
-      <c r="J86" s="25">
+      <c r="J86" s="15">
         <f t="shared" si="8"/>
         <v>8.7000000000000011</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="20"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="23" t="s">
+      <c r="A87" s="19"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="24">
+      <c r="G87" s="14">
         <v>0</v>
       </c>
-      <c r="H87" s="24">
+      <c r="H87" s="14">
         <v>0</v>
       </c>
-      <c r="I87" s="24">
+      <c r="I87" s="14">
         <v>0</v>
       </c>
-      <c r="J87" s="25">
+      <c r="J87" s="15">
         <f>AVERAGE(G87:I87)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="26"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="28" t="s">
+      <c r="A88" s="16"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="20">
+      <c r="A90" s="19">
         <v>17</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D90" s="19">
         <v>80</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="23" t="s">
+      <c r="F90" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G90" s="24">
+      <c r="G90" s="14">
         <v>96</v>
       </c>
-      <c r="H90" s="24">
+      <c r="H90" s="14">
         <v>87</v>
       </c>
-      <c r="I90" s="24">
+      <c r="I90" s="14">
         <v>94</v>
       </c>
-      <c r="J90" s="25">
+      <c r="J90" s="15">
         <f>AVERAGE(G90:I90)</f>
         <v>92.333333333333329</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="17"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="23" t="s">
+      <c r="A91" s="29"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="24">
+      <c r="G91" s="14">
         <v>1070</v>
       </c>
-      <c r="H91" s="24">
+      <c r="H91" s="14">
         <v>3563</v>
       </c>
-      <c r="I91" s="24">
+      <c r="I91" s="14">
         <v>1530</v>
       </c>
-      <c r="J91" s="25">
+      <c r="J91" s="15">
         <f t="shared" ref="J91:J93" si="9">AVERAGE(G91:I91)</f>
         <v>2054.3333333333335</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="23" t="s">
+      <c r="A92" s="29"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G92" s="24">
+      <c r="G92" s="14">
         <v>348</v>
       </c>
-      <c r="H92" s="24">
+      <c r="H92" s="14">
         <v>475</v>
       </c>
-      <c r="I92" s="24">
+      <c r="I92" s="14">
         <v>538</v>
       </c>
-      <c r="J92" s="25">
+      <c r="J92" s="15">
         <f t="shared" si="9"/>
         <v>453.66666666666669</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="17"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="23" t="s">
+      <c r="A93" s="29"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G93" s="24">
+      <c r="G93" s="14">
         <v>19.600000000000001</v>
       </c>
-      <c r="H93" s="24">
+      <c r="H93" s="14">
         <v>15.1</v>
       </c>
-      <c r="I93" s="24">
+      <c r="I93" s="14">
         <v>20.7</v>
       </c>
-      <c r="J93" s="25">
+      <c r="J93" s="15">
         <f t="shared" si="9"/>
         <v>18.466666666666669</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="17"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="23" t="s">
+      <c r="A94" s="29"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G94" s="24">
+      <c r="G94" s="14">
         <v>13.75</v>
       </c>
-      <c r="H94" s="24">
+      <c r="H94" s="14">
         <v>12.5</v>
       </c>
-      <c r="I94" s="24">
+      <c r="I94" s="14">
         <v>16.25</v>
       </c>
-      <c r="J94" s="25">
+      <c r="J94" s="15">
         <f>AVERAGE(G94:I94)</f>
         <v>14.166666666666666</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="26"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="37" t="s">
+      <c r="A95" s="16"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
     </row>
     <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="20">
+      <c r="A97" s="19">
         <v>18</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="19">
         <v>40</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E97" s="19">
         <v>0</v>
       </c>
-      <c r="F97" s="23" t="s">
+      <c r="F97" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G97" s="24">
+      <c r="G97" s="14">
         <v>104</v>
       </c>
-      <c r="H97" s="24">
+      <c r="H97" s="14">
         <v>113</v>
       </c>
       <c r="I97" s="1">
         <v>85</v>
       </c>
-      <c r="J97" s="25">
+      <c r="J97" s="15">
         <f>AVERAGE(G97:I97)</f>
         <v>100.66666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="17"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="23" t="s">
+      <c r="A98" s="29"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="24">
+      <c r="G98" s="14">
         <v>2372</v>
       </c>
-      <c r="H98" s="24">
+      <c r="H98" s="14">
         <v>1305</v>
       </c>
       <c r="I98" s="1">
         <v>1214</v>
       </c>
-      <c r="J98" s="25">
+      <c r="J98" s="15">
         <f t="shared" ref="J98:J100" si="10">AVERAGE(G98:I98)</f>
         <v>1630.3333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="17"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="23" t="s">
+      <c r="A99" s="29"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="24">
+      <c r="G99" s="14">
         <v>449</v>
       </c>
-      <c r="H99" s="24">
+      <c r="H99" s="14">
         <v>269</v>
       </c>
       <c r="I99" s="1">
         <v>571</v>
       </c>
-      <c r="J99" s="25">
+      <c r="J99" s="15">
         <f t="shared" si="10"/>
         <v>429.66666666666669</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="17"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="23" t="s">
+      <c r="A100" s="29"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G100" s="24">
+      <c r="G100" s="14">
         <v>16.7</v>
       </c>
-      <c r="H100" s="24">
+      <c r="H100" s="14">
         <v>30.3</v>
       </c>
       <c r="I100" s="1">
         <v>32.700000000000003</v>
       </c>
-      <c r="J100" s="25">
+      <c r="J100" s="15">
         <f t="shared" si="10"/>
         <v>26.566666666666666</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="17"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="23" t="s">
+      <c r="A101" s="29"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G101" s="24">
+      <c r="G101" s="14">
         <v>0</v>
       </c>
-      <c r="H101" s="24">
+      <c r="H101" s="14">
         <v>0</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
       </c>
-      <c r="J101" s="25">
+      <c r="J101" s="15">
         <f>AVERAGE(G101:I101)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="26"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="28" t="s">
+      <c r="A102" s="16"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
     </row>
     <row r="103" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="20">
+      <c r="A104" s="19">
         <v>18</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D104" s="20">
+      <c r="D104" s="19">
         <v>1000</v>
       </c>
-      <c r="E104" s="20">
+      <c r="E104" s="19">
         <v>1</v>
       </c>
-      <c r="F104" s="23" t="s">
+      <c r="F104" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G104" s="24">
+      <c r="G104" s="14">
         <v>106</v>
       </c>
-      <c r="H104" s="24">
+      <c r="H104" s="14">
         <v>260</v>
       </c>
-      <c r="I104" s="24">
+      <c r="I104" s="14">
         <v>472</v>
       </c>
-      <c r="J104" s="25">
+      <c r="J104" s="15">
         <f>AVERAGE(G104:I104)</f>
         <v>279.33333333333331</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="17"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="23" t="s">
+      <c r="A105" s="29"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G105" s="24">
+      <c r="G105" s="14">
         <v>21060</v>
       </c>
-      <c r="H105" s="24">
+      <c r="H105" s="14">
         <v>21052</v>
       </c>
-      <c r="I105" s="24">
+      <c r="I105" s="14">
         <v>28453</v>
       </c>
-      <c r="J105" s="25">
+      <c r="J105" s="15">
         <f t="shared" ref="J105:J108" si="11">AVERAGE(G105:I105)</f>
         <v>23521.666666666668</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="17"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="23" t="s">
+      <c r="A106" s="29"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G106" s="24">
+      <c r="G106" s="14">
         <v>12111</v>
       </c>
-      <c r="H106" s="24">
+      <c r="H106" s="14">
         <v>12078</v>
       </c>
-      <c r="I106" s="24">
+      <c r="I106" s="14">
         <v>12174</v>
       </c>
-      <c r="J106" s="25">
+      <c r="J106" s="15">
         <f t="shared" si="11"/>
         <v>12121</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="17"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="23" t="s">
+      <c r="A107" s="29"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G107" s="24">
+      <c r="G107" s="14">
         <v>45.4</v>
       </c>
-      <c r="H107" s="24">
+      <c r="H107" s="14">
         <v>45.4</v>
       </c>
-      <c r="I107" s="24">
+      <c r="I107" s="14">
         <v>34.4</v>
       </c>
-      <c r="J107" s="25">
+      <c r="J107" s="15">
         <f t="shared" si="11"/>
         <v>41.733333333333327</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="17"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="23" t="s">
+      <c r="A108" s="29"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G108" s="24">
+      <c r="G108" s="14">
         <v>36.9</v>
       </c>
-      <c r="H108" s="24">
+      <c r="H108" s="14">
         <v>37.6</v>
       </c>
-      <c r="I108" s="24">
+      <c r="I108" s="14">
         <v>35</v>
       </c>
-      <c r="J108" s="25">
+      <c r="J108" s="15">
         <f t="shared" si="11"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="23"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="38" t="s">
+      <c r="A109" s="13"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="31"/>
     </row>
     <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4244,66 +4254,26 @@
     <row r="985" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="D81:J81"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="D88:J88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A103:J103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="D109:J109"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="C64:C81"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C26:C43"/>
-    <mergeCell ref="C45:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="D102:J102"/>
-    <mergeCell ref="C97:C102"/>
-    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="E76:E80"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="D95:J95"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="D97:D101"/>
     <mergeCell ref="E97:E101"/>
@@ -4328,26 +4298,66 @@
     <mergeCell ref="A90:A94"/>
     <mergeCell ref="D90:D94"/>
     <mergeCell ref="E90:E94"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="D75:J75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="E76:E80"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="D95:J95"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C26:C43"/>
+    <mergeCell ref="C45:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="A103:J103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="D109:J109"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="C64:C81"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="D102:J102"/>
+    <mergeCell ref="C97:C102"/>
+    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="D88:J88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D31:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4356,10 +4366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4370,22 +4380,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4393,7 +4403,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4401,19 +4411,19 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4421,7 +4431,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4429,19 +4439,19 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4449,7 +4459,7 @@
       <c r="A12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4457,25 +4467,25 @@
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="37"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4483,7 +4493,7 @@
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4491,19 +4501,19 @@
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4511,7 +4521,7 @@
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4519,20 +4529,20 @@
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4540,7 +4550,7 @@
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4548,21 +4558,21 @@
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="37"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4570,7 +4580,7 @@
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4578,19 +4588,19 @@
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="6"/>
@@ -4599,7 +4609,7 @@
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="6"/>
@@ -4608,20 +4618,20 @@
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4629,7 +4639,7 @@
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4637,21 +4647,21 @@
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="37"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4659,7 +4669,7 @@
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4667,19 +4677,19 @@
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="14"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4687,7 +4697,7 @@
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4695,19 +4705,19 @@
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="14"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4715,7 +4725,7 @@
       <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4723,133 +4733,146 @@
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="37"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="37"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="37"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="37"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="39">
+        <v>99946</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4913,8 +4936,9 @@
     <hyperlink ref="B64" r:id="rId46"/>
     <hyperlink ref="B65" r:id="rId47"/>
     <hyperlink ref="B66" r:id="rId48"/>
+    <hyperlink ref="A74" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/Jmeter/Báo cáo Jmeter1.xlsx
+++ b/Jmeter/Báo cáo Jmeter1.xlsx
@@ -466,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -535,6 +535,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -543,7 +552,6 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -627,7 +635,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -951,2430 +964,2430 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="34.109375" style="3" customWidth="1"/>
-    <col min="13" max="27" width="9.5546875" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="14" style="3"/>
+    <col min="1" max="1" width="9.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="34.109375" style="2" customWidth="1"/>
+    <col min="13" max="27" width="9.5546875" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:49" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:49" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:49" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="12" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
+    <row r="6" spans="1:49" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
     </row>
     <row r="7" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>10</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>0</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>104</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>110</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>112</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <f>AVERAGE(G7:I7)</f>
         <v>108.66666666666667</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="13" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>154</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>137</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>322</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f t="shared" ref="J8:J23" si="0">AVERAGE(G8:I8)</f>
         <v>204.33333333333334</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="13" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>129</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>127</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>176</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="13" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>64.900000000000006</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>72.5</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>30.8</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <f t="shared" si="0"/>
         <v>56.06666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="13" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>0</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>0</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="19">
+      <c r="C13" s="31"/>
+      <c r="D13" s="18">
         <v>100</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>0</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>234</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>201</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>206</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <f t="shared" si="0"/>
         <v>213.66666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="13" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>4166</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>1846</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>1931</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="14">
         <f t="shared" si="0"/>
         <v>2647.6666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="13" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>585</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>514</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>625</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <f t="shared" si="0"/>
         <v>574.66666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="13" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>23.1</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>48.9</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>48.9</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <f t="shared" si="0"/>
         <v>40.300000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="13" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>0</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>0</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>0</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="20" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>3</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="19">
+      <c r="C19" s="31"/>
+      <c r="D19" s="18">
         <v>500</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>0</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>324</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>107</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>270</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="14">
         <f t="shared" si="0"/>
         <v>233.66666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="13" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>21060</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>21075</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>21048</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="14">
         <f t="shared" si="0"/>
         <v>21061</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="13" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>7115</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>6832</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>7324</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <f t="shared" si="0"/>
         <v>7090.333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="13" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>23.3</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>23.3</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>23.3</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="14">
         <f t="shared" si="0"/>
         <v>23.3</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="13" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>18.2</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>19.8</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>17.600000000000001</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="14">
         <f t="shared" si="0"/>
         <v>18.533333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="17" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>4</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>10</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>0</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>100</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>99</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>96</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="14">
         <f>AVERAGE(G26:I26)</f>
         <v>98.333333333333329</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="13" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>332</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>125</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <v>332</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="14">
         <f t="shared" ref="J27:J42" si="1">AVERAGE(G27:I27)</f>
         <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="13" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>239</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>118</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <v>216</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="14">
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="13" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>30.1</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>78.7</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <v>29.9</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="14">
         <f t="shared" si="1"/>
         <v>46.233333333333341</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="13" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>0</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>0</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <v>0</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="20" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>5</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="19">
+      <c r="C32" s="31"/>
+      <c r="D32" s="18">
         <v>100</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>0</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>394</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>165</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <v>92</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="14">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="13" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>1553</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <v>1781</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <v>4177</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="14">
         <f t="shared" si="1"/>
         <v>2503.6666666666665</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="13" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>939</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="13">
         <v>668</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="13">
         <v>977</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="14">
         <f t="shared" si="1"/>
         <v>861.33333333333337</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="13" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <v>63</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <v>55.1</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="13">
         <v>23.8</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="14">
         <f t="shared" si="1"/>
         <v>47.300000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="13" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>3</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="13">
         <v>1</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="13">
         <v>1</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="14">
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="17" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <v>6</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="19">
+      <c r="C38" s="31"/>
+      <c r="D38" s="18">
         <v>500</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="18">
         <v>0</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>289</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>110</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="13">
         <v>137</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="14">
         <f t="shared" si="1"/>
         <v>178.66666666666666</v>
       </c>
-      <c r="L38" s="6"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="13" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <v>21044</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>21052</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="13">
         <v>21056</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="14">
         <f t="shared" si="1"/>
         <v>21050.666666666668</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="13" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="13">
         <v>7745</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="13">
         <v>7975</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="13">
         <v>1650</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="14">
         <f t="shared" si="1"/>
         <v>5790</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="13" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="13">
         <v>23.5</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <v>23.6</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="13">
         <v>23.4</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="14">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="13" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>33.200000000000003</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>37.4</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="13">
         <v>33.6</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="14">
         <f t="shared" si="1"/>
         <v>34.733333333333327</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="17" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="A45" s="18">
         <v>8</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="18">
         <v>10</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="18">
         <v>0</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="13">
         <v>67</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13">
         <v>63</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="13">
         <v>66</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="14">
         <f>AVERAGE(G45:I45)</f>
         <v>65.333333333333329</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="13" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="13">
         <v>88</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <v>279</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="13">
         <v>79</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="14">
         <f t="shared" ref="J46:J49" si="2">AVERAGE(G46:I46)</f>
         <v>148.66666666666666</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="13" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="13">
         <v>80</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="13">
         <v>211</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="13">
         <v>72</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="14">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="13" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="13">
         <v>111.1</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="13">
         <v>35.700000000000003</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="13">
         <v>126.6</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="14">
         <f t="shared" si="2"/>
         <v>91.133333333333326</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="13" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="13">
         <v>0</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <v>0</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="13">
         <v>0</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="20" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19">
+      <c r="A51" s="18">
         <v>9</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="19">
+      <c r="C51" s="31"/>
+      <c r="D51" s="18">
         <v>100</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="18">
         <v>0</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="13">
         <v>164</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="13">
         <v>160</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="13">
         <v>537</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="14">
         <f t="shared" ref="J51:J55" si="3">AVERAGE(G51:I51)</f>
         <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="13" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="13">
         <v>1111</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="13">
         <v>1130</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="13">
         <v>1120</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="14">
         <f t="shared" si="3"/>
         <v>1120.3333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="13" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="13">
         <v>474</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="13">
         <v>420</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="13">
         <v>746</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="14">
         <f t="shared" si="3"/>
         <v>546.66666666666663</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="13" t="s">
+      <c r="A54" s="28"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="13">
         <v>83.8</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="13">
         <v>83.1</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="13">
         <v>85.4</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="14">
         <f t="shared" si="3"/>
         <v>84.1</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="13" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="13">
         <v>15</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="13">
         <v>18</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="13">
         <v>15</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="14">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="17" t="s">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19">
+      <c r="A57" s="18">
         <v>10</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="19">
+      <c r="C57" s="31"/>
+      <c r="D57" s="18">
         <v>500</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="18">
         <v>0</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="13">
         <v>256</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>219</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="13">
         <v>233</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="14">
         <f t="shared" ref="J57:J61" si="4">AVERAGE(G57:I57)</f>
         <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="13" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="13">
         <v>21050</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <v>21066</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="13">
         <v>21038</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="14">
         <f t="shared" si="4"/>
         <v>21051.333333333332</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="13" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="13">
         <v>7598</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>7767</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="13">
         <v>7899</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="14">
         <f t="shared" si="4"/>
         <v>7754.666666666667</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="13" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="13">
         <v>23.5</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <v>23.6</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="13">
         <v>23.5</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="14">
         <f t="shared" si="4"/>
         <v>23.533333333333331</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="13" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="13">
         <v>34.200000000000003</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <v>35.200000000000003</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="13">
         <v>32.799999999999997</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="14">
         <f t="shared" si="4"/>
         <v>34.06666666666667</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="17" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19">
+      <c r="A64" s="18">
         <v>11</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="18">
         <v>10</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="18">
         <v>0</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="13">
         <v>115</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>97</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="13">
         <v>100</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="14">
         <f>AVERAGE(G64:I64)</f>
         <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="13" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="13">
         <v>821</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>110</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="13">
         <v>136</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65" s="14">
         <f t="shared" ref="J65:J68" si="5">AVERAGE(G65:I65)</f>
         <v>355.66666666666669</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="13" t="s">
+      <c r="A66" s="28"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="13">
         <v>198</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <v>102</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I66" s="13">
         <v>108</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="14">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="13" t="s">
+      <c r="A67" s="28"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="13">
         <v>12.2</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <v>90.1</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="13">
         <v>73.5</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J67" s="14">
         <f t="shared" si="5"/>
         <v>58.6</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="13" t="s">
+      <c r="A68" s="28"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="13">
         <v>0</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="13">
         <v>0</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="13">
         <v>0</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="20" t="s">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
     </row>
     <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19">
+      <c r="A70" s="18">
         <v>12</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="19">
+      <c r="C70" s="31"/>
+      <c r="D70" s="18">
         <v>100</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="18">
         <v>0</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="13">
         <v>137</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="13">
         <v>144</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="13">
         <v>194</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="14">
         <f t="shared" ref="J70:J74" si="6">AVERAGE(G70:I70)</f>
         <v>158.33333333333334</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="13" t="s">
+      <c r="A71" s="28"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="13">
         <v>1142</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="13">
         <v>1770</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I71" s="13">
         <v>1196</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="14">
         <f t="shared" si="6"/>
         <v>1369.3333333333333</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="13" t="s">
+      <c r="A72" s="28"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="13">
         <v>555</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="13">
         <v>573</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I72" s="13">
         <v>566</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="14">
         <f t="shared" si="6"/>
         <v>564.66666666666663</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="13" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="13">
         <v>80.099999999999994</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="13">
         <v>54.2</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I73" s="13">
         <v>78.8</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="14">
         <f t="shared" si="6"/>
         <v>71.033333333333346</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="13" t="s">
+      <c r="A74" s="28"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="13">
         <v>6</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="13">
         <v>12</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I74" s="13">
         <v>9</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J74" s="14">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="17" t="s">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
     </row>
     <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19">
+      <c r="A76" s="18">
         <v>13</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="19">
+      <c r="C76" s="31"/>
+      <c r="D76" s="18">
         <v>500</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E76" s="18">
         <v>0</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="13">
         <v>177</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="13">
         <v>142</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I76" s="13">
         <v>337</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="14">
         <f t="shared" ref="J76:J79" si="7">AVERAGE(G76:I76)</f>
         <v>218.66666666666666</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="13" t="s">
+      <c r="A77" s="28"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="13">
         <v>21057</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="13">
         <v>21065</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I77" s="13">
         <v>21041</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J77" s="14">
         <f t="shared" si="7"/>
         <v>21054.333333333332</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="29"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="13" t="s">
+      <c r="A78" s="28"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="13">
         <v>7464</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="13">
         <v>7891</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I78" s="13">
         <v>7396</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J78" s="14">
         <f t="shared" si="7"/>
         <v>7583.666666666667</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="13" t="s">
+      <c r="A79" s="28"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="13">
         <v>23.4</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="13">
         <v>23.5</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I79" s="13">
         <v>23.5</v>
       </c>
-      <c r="J79" s="15">
+      <c r="J79" s="14">
         <f t="shared" si="7"/>
         <v>23.466666666666669</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="29"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="13" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="13">
         <v>29.6</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="13">
         <v>30.4</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I80" s="13">
         <v>29.2</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J80" s="14">
         <f>AVERAGE(G80:I80)</f>
         <v>29.733333333333334</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="17" t="s">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="19">
+      <c r="A83" s="18">
         <v>16</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="18">
         <v>80</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G83" s="13">
         <v>149</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="13">
         <v>141</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I83" s="13">
         <v>167</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J83" s="14">
         <f>AVERAGE(G83:I83)</f>
         <v>152.33333333333334</v>
       </c>
-      <c r="L83" s="6"/>
+      <c r="L83" s="5"/>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="19"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="13" t="s">
+      <c r="A84" s="18"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="13">
         <v>1992</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="13">
         <v>15389</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I84" s="13">
         <v>15892</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J84" s="14">
         <f t="shared" ref="J84:J86" si="8">AVERAGE(G84:I84)</f>
         <v>11091</v>
       </c>
-      <c r="L84" s="6"/>
+      <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="13" t="s">
+      <c r="A85" s="18"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G85" s="13">
         <v>755</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H85" s="13">
         <v>2336</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I85" s="13">
         <v>1495</v>
       </c>
-      <c r="J85" s="15">
+      <c r="J85" s="14">
         <f t="shared" si="8"/>
         <v>1528.6666666666667</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="13" t="s">
+      <c r="A86" s="18"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G86" s="13">
         <v>17.100000000000001</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H86" s="13">
         <v>4.3</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I86" s="13">
         <v>4.7</v>
       </c>
-      <c r="J86" s="15">
+      <c r="J86" s="14">
         <f t="shared" si="8"/>
         <v>8.7000000000000011</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="13" t="s">
+      <c r="A87" s="18"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G87" s="13">
         <v>0</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H87" s="13">
         <v>0</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I87" s="13">
         <v>0</v>
       </c>
-      <c r="J87" s="15">
+      <c r="J87" s="14">
         <f>AVERAGE(G87:I87)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="20" t="s">
+      <c r="A88" s="15"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="19">
+      <c r="A90" s="18">
         <v>17</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="18">
         <v>80</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="13">
         <v>96</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="13">
         <v>87</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I90" s="13">
         <v>94</v>
       </c>
-      <c r="J90" s="15">
+      <c r="J90" s="14">
         <f>AVERAGE(G90:I90)</f>
         <v>92.333333333333329</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="29"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="13" t="s">
+      <c r="A91" s="28"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G91" s="13">
         <v>1070</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H91" s="13">
         <v>3563</v>
       </c>
-      <c r="I91" s="14">
+      <c r="I91" s="13">
         <v>1530</v>
       </c>
-      <c r="J91" s="15">
+      <c r="J91" s="14">
         <f t="shared" ref="J91:J93" si="9">AVERAGE(G91:I91)</f>
         <v>2054.3333333333335</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="29"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="13" t="s">
+      <c r="A92" s="28"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G92" s="13">
         <v>348</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H92" s="13">
         <v>475</v>
       </c>
-      <c r="I92" s="14">
+      <c r="I92" s="13">
         <v>538</v>
       </c>
-      <c r="J92" s="15">
+      <c r="J92" s="14">
         <f t="shared" si="9"/>
         <v>453.66666666666669</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="13" t="s">
+      <c r="A93" s="28"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G93" s="14">
+      <c r="G93" s="13">
         <v>19.600000000000001</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H93" s="13">
         <v>15.1</v>
       </c>
-      <c r="I93" s="14">
+      <c r="I93" s="13">
         <v>20.7</v>
       </c>
-      <c r="J93" s="15">
+      <c r="J93" s="14">
         <f t="shared" si="9"/>
         <v>18.466666666666669</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="29"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="13" t="s">
+      <c r="A94" s="28"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G94" s="13">
         <v>13.75</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H94" s="13">
         <v>12.5</v>
       </c>
-      <c r="I94" s="14">
+      <c r="I94" s="13">
         <v>16.25</v>
       </c>
-      <c r="J94" s="15">
+      <c r="J94" s="14">
         <f>AVERAGE(G94:I94)</f>
         <v>14.166666666666666</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="16"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="17" t="s">
+      <c r="A95" s="15"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
     </row>
     <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="19">
+      <c r="A97" s="18">
         <v>18</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="18">
         <v>40</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="18">
         <v>0</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G97" s="14">
+      <c r="G97" s="13">
         <v>104</v>
       </c>
-      <c r="H97" s="14">
+      <c r="H97" s="13">
         <v>113</v>
       </c>
       <c r="I97" s="1">
         <v>85</v>
       </c>
-      <c r="J97" s="15">
+      <c r="J97" s="14">
         <f>AVERAGE(G97:I97)</f>
         <v>100.66666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="29"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="13" t="s">
+      <c r="A98" s="28"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="14">
+      <c r="G98" s="13">
         <v>2372</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="13">
         <v>1305</v>
       </c>
       <c r="I98" s="1">
         <v>1214</v>
       </c>
-      <c r="J98" s="15">
+      <c r="J98" s="14">
         <f t="shared" ref="J98:J100" si="10">AVERAGE(G98:I98)</f>
         <v>1630.3333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="29"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="13" t="s">
+      <c r="A99" s="28"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="14">
+      <c r="G99" s="13">
         <v>449</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="13">
         <v>269</v>
       </c>
       <c r="I99" s="1">
         <v>571</v>
       </c>
-      <c r="J99" s="15">
+      <c r="J99" s="14">
         <f t="shared" si="10"/>
         <v>429.66666666666669</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="29"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="13" t="s">
+      <c r="A100" s="28"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="13">
         <v>16.7</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="13">
         <v>30.3</v>
       </c>
       <c r="I100" s="1">
         <v>32.700000000000003</v>
       </c>
-      <c r="J100" s="15">
+      <c r="J100" s="14">
         <f t="shared" si="10"/>
         <v>26.566666666666666</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="13" t="s">
+      <c r="A101" s="28"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G101" s="14">
+      <c r="G101" s="13">
         <v>0</v>
       </c>
-      <c r="H101" s="14">
+      <c r="H101" s="13">
         <v>0</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
       </c>
-      <c r="J101" s="15">
+      <c r="J101" s="14">
         <f>AVERAGE(G101:I101)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="16"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="20" t="s">
+      <c r="A102" s="15"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
     </row>
     <row r="103" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="30"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="30"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
     </row>
     <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="19">
+      <c r="A104" s="18">
         <v>18</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="18">
         <v>1000</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E104" s="18">
         <v>1</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="F104" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G104" s="14">
+      <c r="G104" s="13">
         <v>106</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H104" s="13">
         <v>260</v>
       </c>
-      <c r="I104" s="14">
+      <c r="I104" s="13">
         <v>472</v>
       </c>
-      <c r="J104" s="15">
+      <c r="J104" s="14">
         <f>AVERAGE(G104:I104)</f>
         <v>279.33333333333331</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="29"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="13" t="s">
+      <c r="A105" s="28"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G105" s="14">
+      <c r="G105" s="13">
         <v>21060</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H105" s="13">
         <v>21052</v>
       </c>
-      <c r="I105" s="14">
+      <c r="I105" s="13">
         <v>28453</v>
       </c>
-      <c r="J105" s="15">
+      <c r="J105" s="14">
         <f t="shared" ref="J105:J108" si="11">AVERAGE(G105:I105)</f>
         <v>23521.666666666668</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="29"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="13" t="s">
+      <c r="A106" s="28"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G106" s="14">
+      <c r="G106" s="13">
         <v>12111</v>
       </c>
-      <c r="H106" s="14">
+      <c r="H106" s="13">
         <v>12078</v>
       </c>
-      <c r="I106" s="14">
+      <c r="I106" s="13">
         <v>12174</v>
       </c>
-      <c r="J106" s="15">
+      <c r="J106" s="14">
         <f t="shared" si="11"/>
         <v>12121</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="29"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="13" t="s">
+      <c r="A107" s="28"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G107" s="14">
+      <c r="G107" s="13">
         <v>45.4</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H107" s="13">
         <v>45.4</v>
       </c>
-      <c r="I107" s="14">
+      <c r="I107" s="13">
         <v>34.4</v>
       </c>
-      <c r="J107" s="15">
+      <c r="J107" s="14">
         <f t="shared" si="11"/>
         <v>41.733333333333327</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="29"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="13" t="s">
+      <c r="A108" s="28"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G108" s="14">
+      <c r="G108" s="13">
         <v>36.9</v>
       </c>
-      <c r="H108" s="14">
+      <c r="H108" s="13">
         <v>37.6</v>
       </c>
-      <c r="I108" s="14">
+      <c r="I108" s="13">
         <v>35</v>
       </c>
-      <c r="J108" s="15">
+      <c r="J108" s="14">
         <f t="shared" si="11"/>
         <v>36.5</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="31" t="s">
+      <c r="A109" s="12"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4369,7 +4382,7 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4380,22 +4393,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4403,7 +4416,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4411,19 +4424,19 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4431,7 +4444,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4439,19 +4452,19 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4459,7 +4472,7 @@
       <c r="A12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4467,25 +4480,25 @@
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="36"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4493,7 +4506,7 @@
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4501,19 +4514,19 @@
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4521,7 +4534,7 @@
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4529,20 +4542,20 @@
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4550,7 +4563,7 @@
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4558,21 +4571,21 @@
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="36"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4580,7 +4593,7 @@
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4588,50 +4601,50 @@
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="11"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="11"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4639,7 +4652,7 @@
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4647,21 +4660,21 @@
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="36"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4669,7 +4682,7 @@
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4677,19 +4690,19 @@
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4697,7 +4710,7 @@
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4705,19 +4718,19 @@
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="11"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4725,7 +4738,7 @@
       <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4733,149 +4746,151 @@
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="36"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="36"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="36"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="37"/>
+      <c r="B63" s="36"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="40" t="s">
+      <c r="A67" s="39" t="s">
         <v>95</v>
       </c>
+      <c r="B67" s="39"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="40"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" s="39">
+      <c r="B74" s="38">
         <v>99946</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -4936,7 +4951,7 @@
     <hyperlink ref="B64" r:id="rId46"/>
     <hyperlink ref="B65" r:id="rId47"/>
     <hyperlink ref="B66" r:id="rId48"/>
-    <hyperlink ref="A74" r:id="rId49"/>
+    <hyperlink ref="A68" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId50"/>
